--- a/latex/spreadsheets/cy_hist.xlsx
+++ b/latex/spreadsheets/cy_hist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\r13_enlight\branches\MeshExtraction\Demonstrator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\master\latex\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="cy-hist" sheetId="1" r:id="rId1"/>
@@ -582,38 +582,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -646,389 +615,395 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'cy-hist'!$A$3:$A$129</c:f>
+              <c:f>'cy-hist'!$A$2:$A$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="93">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="94">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="95">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="97">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="98">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="99">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="100">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="101">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="102">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="103">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="104">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="105">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="106">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="107">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="108">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="109">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="110">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="111">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="112">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="113">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="114">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="115">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="116">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="117">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="119">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="120">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="121">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="122">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="123">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="124">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="125">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="126">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="127">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="128">
                   <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
@@ -1036,16 +1011,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cy-hist'!$B$3:$B$129</c:f>
+              <c:f>'cy-hist'!$B$2:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1053,59 +1028,59 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1119,19 +1094,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -1149,17 +1124,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1419,6 +1394,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1434,11 +1415,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="187414032"/>
-        <c:axId val="187414416"/>
+        <c:axId val="443382600"/>
+        <c:axId val="443382992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187414032"/>
+        <c:axId val="443382600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,20 +1476,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187414416"/>
+        <c:crossAx val="443382992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1000"/>
+        <c:tickLblSkip val="20"/>
+        <c:tickMarkSkip val="20"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187414416"/>
+        <c:axId val="443382992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1563,7 +1544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187414032"/>
+        <c:crossAx val="443382600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1584,12 +1565,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1607,7 +1583,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2172,16 +2148,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313649</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2466,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,7 +2454,7 @@
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2486,15 +2462,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>782</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2502,113 +2481,113 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -2616,31 +2595,31 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2648,23 +2627,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2672,7 +2651,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2680,7 +2659,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2688,7 +2667,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2696,7 +2675,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2704,39 +2683,39 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2744,7 +2723,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2752,7 +2731,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2760,7 +2739,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2768,7 +2747,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2776,7 +2755,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2784,15 +2763,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2800,15 +2779,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2816,7 +2795,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2824,7 +2803,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2832,7 +2811,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2840,7 +2819,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2848,7 +2827,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2856,7 +2835,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2864,7 +2843,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2872,7 +2851,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2880,7 +2859,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2888,7 +2867,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2896,7 +2875,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2904,7 +2883,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2912,7 +2891,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2920,7 +2899,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2928,7 +2907,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2936,7 +2915,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2944,7 +2923,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2952,7 +2931,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2960,7 +2939,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2968,7 +2947,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2976,7 +2955,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2984,7 +2963,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2992,7 +2971,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3000,7 +2979,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3008,7 +2987,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3016,7 +2995,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3024,7 +3003,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3032,7 +3011,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3040,7 +3019,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3048,7 +3027,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3056,7 +3035,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3064,7 +3043,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3072,7 +3051,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3080,7 +3059,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3088,7 +3067,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3096,7 +3075,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3104,7 +3083,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3112,7 +3091,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3120,7 +3099,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3128,7 +3107,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3136,7 +3115,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3144,7 +3123,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3152,7 +3131,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3160,7 +3139,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3168,7 +3147,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3176,7 +3155,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3184,7 +3163,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3192,7 +3171,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3200,7 +3179,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3208,7 +3187,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3216,7 +3195,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3224,7 +3203,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3232,7 +3211,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3240,7 +3219,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3248,7 +3227,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3256,7 +3235,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3264,7 +3243,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3272,7 +3251,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3280,7 +3259,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3288,7 +3267,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3296,7 +3275,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3304,7 +3283,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3312,7 +3291,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3320,7 +3299,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3328,7 +3307,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3336,7 +3315,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3344,7 +3323,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -3352,7 +3331,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -3360,7 +3339,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -3368,7 +3347,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3376,7 +3355,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -3384,7 +3363,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -3392,7 +3371,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3400,7 +3379,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -3408,7 +3387,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3416,7 +3395,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3424,7 +3403,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3432,7 +3411,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3440,7 +3419,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3448,7 +3427,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3456,7 +3435,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3464,7 +3443,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3472,7 +3451,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3480,7 +3459,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3488,7 +3467,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3496,7 +3475,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3504,9 +3483,17 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>8</v>
       </c>
     </row>

--- a/latex/spreadsheets/cy_hist.xlsx
+++ b/latex/spreadsheets/cy_hist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="cy-hist" sheetId="1" r:id="rId1"/>
@@ -1415,11 +1415,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="443382600"/>
-        <c:axId val="443382992"/>
+        <c:axId val="368645872"/>
+        <c:axId val="368646656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443382600"/>
+        <c:axId val="368645872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443382992"/>
+        <c:crossAx val="368646656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1486,7 +1486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443382992"/>
+        <c:axId val="368646656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1544,7 +1544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443382600"/>
+        <c:crossAx val="368645872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2154,10 +2154,10 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>313649</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>113850</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342449</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
